--- a/data/result с robust nelder mid.xlsx
+++ b/data/result с robust nelder mid.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voronkina.2018\Desktop\проектная деятельность\BioProject\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\OneDrive - riverw\ДАША\Другое\альтернативный код проект\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4A5F68-985F-4B37-BEBA-1610ABCECC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="4" r:id="rId1"/>
+    <sheet name="Различная минимизация" sheetId="4" r:id="rId1"/>
+    <sheet name="Различные параметры Хьюбера" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>components</t>
   </si>
@@ -42,9 +44,6 @@
   </si>
   <si>
     <t>Ошибка классического плс</t>
-  </si>
-  <si>
-    <t>Ошибка робастного плс</t>
   </si>
   <si>
     <t>Ошибка реализации библиотеки</t>
@@ -61,11 +60,50 @@
   <si>
     <t>Крос валидация библиотеки</t>
   </si>
+  <si>
+    <t>Ошибка робастного нелдера мида</t>
+  </si>
+  <si>
+    <t>Ошибка робастного Хука и Дживсе</t>
+  </si>
+  <si>
+    <t>250 - значение в точке</t>
+  </si>
+  <si>
+    <t>2. С выбросом в точке 5</t>
+  </si>
+  <si>
+    <t>100 - значение в точке</t>
+  </si>
+  <si>
+    <t>Ошибка робастного Пауэла</t>
+  </si>
+  <si>
+    <t>Ошибка робастного плс Нелдера Мида</t>
+  </si>
+  <si>
+    <t>Ошибка робастного плс Пауэла</t>
+  </si>
+  <si>
+    <t>ошибка робаста</t>
+  </si>
+  <si>
+    <t>с различными значениями параметра</t>
+  </si>
+  <si>
+    <t>функции Хьюбера</t>
+  </si>
+  <si>
+    <t>components\альфа</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -118,14 +156,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="2"/>
+    <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Плохой" xfId="1" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -437,11 +477,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView topLeftCell="L9" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24:R43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,19 +490,20 @@
     <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="35" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="35" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="40.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -476,505 +517,2570 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="C2">
+        <v>46.340934095446599</v>
+      </c>
+      <c r="D2">
+        <v>33.089424217261197</v>
+      </c>
+      <c r="E2">
+        <v>46.495196112231497</v>
+      </c>
+      <c r="F2" s="3">
+        <v>11307.5005039967</v>
+      </c>
+      <c r="G2">
+        <v>2.1486468413853699E-3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2">
         <v>1</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>61332.300754084601</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>62322.917643177898</v>
       </c>
-      <c r="K2">
+      <c r="M2">
+        <v>1.1271963427227101</v>
+      </c>
+      <c r="O2">
         <v>20635.551986649902</v>
       </c>
-      <c r="N2">
+      <c r="Q2">
         <v>251.37485484792401</v>
       </c>
-      <c r="P2">
+      <c r="R2">
+        <v>252.678761348226</v>
+      </c>
+      <c r="S2">
         <v>274.87823976262899</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="H3">
+      <c r="C3">
+        <v>34.2778654002569</v>
+      </c>
+      <c r="D3">
+        <v>26.690106651969401</v>
+      </c>
+      <c r="E3">
+        <v>34.221456937971602</v>
+      </c>
+      <c r="F3">
+        <v>9858.3784664729101</v>
+      </c>
+      <c r="G3">
+        <v>7.3643508146044503E-3</v>
+      </c>
+      <c r="J3">
         <v>2</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>31159.112629024101</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>40886.534970037603</v>
       </c>
-      <c r="K3">
+      <c r="M3">
+        <v>0.29205495744911503</v>
+      </c>
+      <c r="O3">
         <v>9838.1201192481094</v>
       </c>
-      <c r="N3">
+      <c r="Q3">
         <v>276.91824011305903</v>
       </c>
-      <c r="P3">
+      <c r="R3">
+        <v>252.54866898071299</v>
+      </c>
+      <c r="S3">
         <v>277.27180149474702</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="H4">
+      <c r="C4">
+        <v>29.555827879366099</v>
+      </c>
+      <c r="D4">
+        <v>20.784284741380599</v>
+      </c>
+      <c r="E4">
+        <v>29.517092022309001</v>
+      </c>
+      <c r="F4">
+        <v>7262.49830737917</v>
+      </c>
+      <c r="G4">
+        <v>3.2314196909196198E-3</v>
+      </c>
+      <c r="J4">
         <v>3</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>16390.9015999045</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>19035.074912586701</v>
       </c>
-      <c r="K4">
+      <c r="M4">
+        <v>0.342035114418693</v>
+      </c>
+      <c r="O4">
         <v>5767.3346763773798</v>
       </c>
-      <c r="N4">
+      <c r="Q4">
         <v>285.03138792500101</v>
       </c>
-      <c r="P4">
+      <c r="R4">
+        <v>261.01225639101699</v>
+      </c>
+      <c r="S4">
         <v>284.19548885144599</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="H5">
+      <c r="C5">
+        <v>26.5160232480902</v>
+      </c>
+      <c r="D5">
+        <v>17.391269485408898</v>
+      </c>
+      <c r="E5">
+        <v>26.467870719405902</v>
+      </c>
+      <c r="F5">
+        <v>6026.5474538861699</v>
+      </c>
+      <c r="G5">
+        <v>7.9312883176670503E-4</v>
+      </c>
+      <c r="J5">
         <v>4</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>9854.1245923628903</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>17495.166597822699</v>
       </c>
-      <c r="K5">
+      <c r="M5">
+        <v>1.3444947731843199E-2</v>
+      </c>
+      <c r="O5">
         <v>3166.8244010282401</v>
       </c>
-      <c r="N5">
+      <c r="Q5">
         <v>290.76468407422198</v>
       </c>
-      <c r="P5">
+      <c r="R5">
+        <v>266.54662224251098</v>
+      </c>
+      <c r="S5">
         <v>284.43449859576299</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="H6">
+      <c r="C6">
+        <v>23.5485546222022</v>
+      </c>
+      <c r="D6">
+        <v>14.269966075425099</v>
+      </c>
+      <c r="E6">
+        <v>23.510789381873</v>
+      </c>
+      <c r="F6">
+        <v>3564.32190949704</v>
+      </c>
+      <c r="G6">
+        <v>3.6174472741427599E-3</v>
+      </c>
+      <c r="J6">
         <v>5</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>7328.0869516939802</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>12076.021925912</v>
       </c>
-      <c r="K6">
+      <c r="M6">
+        <v>4.2797987020913898E-2</v>
+      </c>
+      <c r="O6">
         <v>1817.5970071198301</v>
       </c>
-      <c r="N6">
+      <c r="Q6">
         <v>291.81336499801603</v>
       </c>
-      <c r="P6">
+      <c r="R6">
+        <v>271.46744538381301</v>
+      </c>
+      <c r="S6">
         <v>285.51611855045098</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="H7">
+      <c r="C7">
+        <v>20.820173573674001</v>
+      </c>
+      <c r="D7">
+        <v>12.015997257778899</v>
+      </c>
+      <c r="E7">
+        <v>20.781514365172601</v>
+      </c>
+      <c r="F7">
+        <v>3243.3508827831301</v>
+      </c>
+      <c r="G7">
+        <v>5.1694566331120196E-4</v>
+      </c>
+      <c r="J7">
         <v>6</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>5187.0744971066397</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>7402.0892980661301</v>
       </c>
-      <c r="K7">
+      <c r="M7">
+        <v>9.7064622145227805E-3</v>
+      </c>
+      <c r="O7">
         <v>1212.9611506897099</v>
       </c>
-      <c r="N7">
+      <c r="Q7">
         <v>293.89705160191698</v>
       </c>
-      <c r="P7">
+      <c r="R7">
+        <v>292.00912834564002</v>
+      </c>
+      <c r="S7">
         <v>285.03911618447199</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="H8">
+      <c r="C8">
+        <v>18.459393268465</v>
+      </c>
+      <c r="D8">
+        <v>10.382906167030299</v>
+      </c>
+      <c r="E8">
+        <v>18.436934046226099</v>
+      </c>
+      <c r="F8">
+        <v>1662.73064796877</v>
+      </c>
+      <c r="G8">
+        <v>1.00555971778969E-4</v>
+      </c>
+      <c r="J8">
         <v>7</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>3750.6548068720099</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>2322.4056797800399</v>
       </c>
-      <c r="K8">
+      <c r="M8">
+        <v>3.48687712893964E-3</v>
+      </c>
+      <c r="O8">
         <v>793.75554820001105</v>
       </c>
-      <c r="N8">
+      <c r="Q8">
         <v>296.12971028204498</v>
       </c>
-      <c r="P8">
+      <c r="R8">
+        <v>293.37359643556101</v>
+      </c>
+      <c r="S8">
         <v>286.50008813888797</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="H9">
+      <c r="C9">
+        <v>16.9990857714368</v>
+      </c>
+      <c r="D9">
+        <v>7.6998708381034504</v>
+      </c>
+      <c r="E9">
+        <v>16.968902597632699</v>
+      </c>
+      <c r="F9">
+        <v>808.17895438261405</v>
+      </c>
+      <c r="G9">
+        <v>1.1692384521194499E-3</v>
+      </c>
+      <c r="J9">
         <v>8</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>2954.19946000758</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>1835.33463742098</v>
       </c>
-      <c r="K9">
+      <c r="M9">
+        <v>2.6712353830859602E-3</v>
+      </c>
+      <c r="O9">
         <v>499.13385888653499</v>
       </c>
-      <c r="N9">
+      <c r="Q9">
         <v>299.72517617017297</v>
       </c>
-      <c r="P9">
+      <c r="R9">
+        <v>309.72362725768801</v>
+      </c>
+      <c r="S9">
         <v>289.65721092177699</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>9</v>
       </c>
-      <c r="H10">
+      <c r="C10">
+        <v>15.359450122902899</v>
+      </c>
+      <c r="D10">
+        <v>6.0267642482385302</v>
+      </c>
+      <c r="E10">
+        <v>15.318889989557301</v>
+      </c>
+      <c r="F10">
+        <v>732.59020341220105</v>
+      </c>
+      <c r="G10">
+        <v>3.1094874550894398E-4</v>
+      </c>
+      <c r="J10">
         <v>9</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>2239.0505750543298</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>1055.7808691318501</v>
       </c>
-      <c r="K10">
+      <c r="M10">
+        <v>1.5949399251808001E-2</v>
+      </c>
+      <c r="O10">
         <v>279.12205111026702</v>
       </c>
-      <c r="N10">
+      <c r="Q10">
         <v>304.07493102661499</v>
       </c>
-      <c r="P10">
+      <c r="R10">
+        <v>298.145162586494</v>
+      </c>
+      <c r="S10">
         <v>290.640558056722</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="H11">
+      <c r="C11">
+        <v>14.087151510595399</v>
+      </c>
+      <c r="D11">
+        <v>4.55737558088612</v>
+      </c>
+      <c r="E11">
+        <v>14.069074137646901</v>
+      </c>
+      <c r="F11">
+        <v>411.29433275637098</v>
+      </c>
+      <c r="G11" s="4">
+        <v>4.5328387540193299E-5</v>
+      </c>
+      <c r="J11">
         <v>10</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>1800.3715243178101</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>939.16470314357196</v>
       </c>
-      <c r="K11">
+      <c r="M11">
+        <v>2.0120808593401701E-4</v>
+      </c>
+      <c r="O11">
         <v>161.08300669841799</v>
       </c>
-      <c r="N11">
+      <c r="Q11">
         <v>309.373116025912</v>
       </c>
-      <c r="P11">
+      <c r="R11">
+        <v>303.03340054897598</v>
+      </c>
+      <c r="S11">
         <v>291.91145558744802</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>11</v>
       </c>
-      <c r="H12">
+      <c r="C12">
+        <v>12.7913259919199</v>
+      </c>
+      <c r="D12">
+        <v>3.7571792660640999</v>
+      </c>
+      <c r="E12">
+        <v>12.7478462220891</v>
+      </c>
+      <c r="F12">
+        <v>230.21931380003599</v>
+      </c>
+      <c r="G12" s="4">
+        <v>2.6725608424775201E-5</v>
+      </c>
+      <c r="J12">
         <v>11</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>1241.5134640614001</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>245.957972073973</v>
       </c>
-      <c r="K12">
+      <c r="M12">
+        <v>3.8968370445885398E-4</v>
+      </c>
+      <c r="O12">
         <v>87.477642114358702</v>
       </c>
-      <c r="N12">
+      <c r="Q12">
         <v>314.722268102285</v>
       </c>
-      <c r="P12">
+      <c r="R12">
+        <v>301.53350024920297</v>
+      </c>
+      <c r="S12">
         <v>293.74898846278103</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>12</v>
       </c>
-      <c r="H13">
+      <c r="C13">
+        <v>11.740125609049899</v>
+      </c>
+      <c r="D13">
+        <v>3.0614048773364799</v>
+      </c>
+      <c r="E13">
+        <v>11.720293996968</v>
+      </c>
+      <c r="F13">
+        <v>223.069907436183</v>
+      </c>
+      <c r="G13" s="4">
+        <v>4.7214618359213598E-5</v>
+      </c>
+      <c r="J13">
         <v>12</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>906.02616379572703</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>313.42258401595598</v>
       </c>
-      <c r="K13">
+      <c r="M13" s="4">
+        <v>9.2096410154600896E-5</v>
+      </c>
+      <c r="O13">
         <v>52.296376312007602</v>
       </c>
-      <c r="N13">
+      <c r="Q13">
         <v>315.39596084194602</v>
       </c>
-      <c r="P13">
+      <c r="R13">
+        <v>301.41951069021599</v>
+      </c>
+      <c r="S13">
         <v>295.01564037102702</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>13</v>
       </c>
-      <c r="H14">
+      <c r="C14">
+        <v>10.770333767805299</v>
+      </c>
+      <c r="D14">
+        <v>2.42607329285384</v>
+      </c>
+      <c r="E14">
+        <v>10.7373542118002</v>
+      </c>
+      <c r="F14">
+        <v>146.470933612029</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2.47137186960188E-5</v>
+      </c>
+      <c r="J14">
         <v>13</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>635.44324916748496</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>100.30340137297701</v>
       </c>
-      <c r="K14">
+      <c r="M14" s="4">
+        <v>1.7112338493735101E-5</v>
+      </c>
+      <c r="O14">
         <v>32.943992013214398</v>
       </c>
-      <c r="N14">
+      <c r="Q14">
         <v>317.44045969589098</v>
       </c>
-      <c r="P14">
+      <c r="R14">
+        <v>301.74500272333302</v>
+      </c>
+      <c r="S14">
         <v>295.82167069567902</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>14</v>
       </c>
-      <c r="H15">
+      <c r="C15">
+        <v>9.31509589247168</v>
+      </c>
+      <c r="D15">
+        <v>1.7106041304289801</v>
+      </c>
+      <c r="E15">
+        <v>9.2585646194008007</v>
+      </c>
+      <c r="F15">
+        <v>59.916642037875</v>
+      </c>
+      <c r="G15" s="4">
+        <v>3.8913392240308899E-6</v>
+      </c>
+      <c r="J15">
         <v>14</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>462.49138572357401</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>79.688505555282305</v>
       </c>
-      <c r="K15">
+      <c r="M15">
+        <v>2.6442281695823402E-4</v>
+      </c>
+      <c r="O15">
         <v>18.5032614352046</v>
       </c>
-      <c r="N15">
+      <c r="Q15">
         <v>318.92225451285401</v>
       </c>
-      <c r="P15">
+      <c r="R15">
+        <v>308.16228533646</v>
+      </c>
+      <c r="S15">
         <v>296.31618839091902</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>15</v>
       </c>
-      <c r="H16">
+      <c r="C16">
+        <v>7.7415775908180198</v>
+      </c>
+      <c r="D16">
+        <v>1.2403074647835799</v>
+      </c>
+      <c r="E16">
+        <v>7.6771206355935204</v>
+      </c>
+      <c r="F16">
+        <v>47.106533226354699</v>
+      </c>
+      <c r="G16" s="4">
+        <v>7.2759306505212396E-6</v>
+      </c>
+      <c r="J16">
         <v>15</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>303.753424915067</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>29.1141000873194</v>
       </c>
-      <c r="K16">
+      <c r="M16">
+        <v>4.7900341235496499E-4</v>
+      </c>
+      <c r="O16">
         <v>7.8191940265527302</v>
       </c>
-      <c r="N16">
+      <c r="Q16">
         <v>319.21347765162</v>
       </c>
-      <c r="P16">
+      <c r="R16">
+        <v>306.25347283385702</v>
+      </c>
+      <c r="S16">
         <v>296.41746665619797</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>16</v>
       </c>
-      <c r="H17">
+      <c r="C17">
+        <v>6.4290542309386201</v>
+      </c>
+      <c r="D17">
+        <v>0.93514555312377201</v>
+      </c>
+      <c r="E17">
+        <v>6.3749823226195197</v>
+      </c>
+      <c r="F17">
+        <v>13.467141455669999</v>
+      </c>
+      <c r="G17" s="4">
+        <v>4.9480743335633998E-6</v>
+      </c>
+      <c r="J17">
         <v>16</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>192.112882500593</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <v>7.8575403478306303</v>
       </c>
-      <c r="K17">
+      <c r="M17" s="4">
+        <v>1.15444506900226E-5</v>
+      </c>
+      <c r="O17">
         <v>4.4341970074095904</v>
       </c>
-      <c r="N17">
+      <c r="Q17">
         <v>319.35577198749701</v>
       </c>
-      <c r="P17">
+      <c r="R17">
+        <v>308.23266541749598</v>
+      </c>
+      <c r="S17">
         <v>296.44312055346097</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>17</v>
       </c>
-      <c r="H18">
+      <c r="C18">
+        <v>5.5063214410825196</v>
+      </c>
+      <c r="D18">
+        <v>0.64078971156279996</v>
+      </c>
+      <c r="E18">
+        <v>5.4503044702650199</v>
+      </c>
+      <c r="F18">
+        <v>10.518039275152301</v>
+      </c>
+      <c r="G18" s="4">
+        <v>9.6545931209941997E-7</v>
+      </c>
+      <c r="J18">
         <v>17</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>142.20929235121301</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>12.149419721038299</v>
       </c>
-      <c r="K18">
+      <c r="M18" s="4">
+        <v>1.1176581132976601E-5</v>
+      </c>
+      <c r="O18">
         <v>2.5494403293113499</v>
       </c>
-      <c r="N18">
+      <c r="Q18">
         <v>318.29549118735599</v>
       </c>
-      <c r="P18">
+      <c r="R18">
+        <v>306.93227182258198</v>
+      </c>
+      <c r="S18">
         <v>296.52428894658402</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>18</v>
       </c>
-      <c r="H19">
+      <c r="C19">
+        <v>4.7343387729032802</v>
+      </c>
+      <c r="D19">
+        <v>0.48181003231195302</v>
+      </c>
+      <c r="E19">
+        <v>4.6827709577065804</v>
+      </c>
+      <c r="F19">
+        <v>5.3842426922270903</v>
+      </c>
+      <c r="G19" s="4">
+        <v>8.7080872489282903E-7</v>
+      </c>
+      <c r="J19">
         <v>18</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>99.435084365627105</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <v>9.8215116476784594</v>
       </c>
-      <c r="K19">
+      <c r="M19" s="4">
+        <v>4.0016263079701303E-6</v>
+      </c>
+      <c r="O19">
         <v>1.52353987709935</v>
       </c>
-      <c r="N19">
+      <c r="Q19">
         <v>316.66811418082898</v>
       </c>
-      <c r="P19">
+      <c r="R19">
+        <v>304.37157436246298</v>
+      </c>
+      <c r="S19">
         <v>296.43262107951199</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>19</v>
       </c>
-      <c r="H20">
+      <c r="C20">
+        <v>4.0996830106806703</v>
+      </c>
+      <c r="D20">
+        <v>0.36046092701341398</v>
+      </c>
+      <c r="E20">
+        <v>4.0518326592482001</v>
+      </c>
+      <c r="F20">
+        <v>3.7673366414513398</v>
+      </c>
+      <c r="G20" s="4">
+        <v>5.3587018146356204E-7</v>
+      </c>
+      <c r="J20">
         <v>19</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>67.320307126049002</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>3.5673133309256402</v>
       </c>
-      <c r="K20">
+      <c r="M20" s="4">
+        <v>6.5709740629744703E-6</v>
+      </c>
+      <c r="O20">
         <v>0.95271232642106196</v>
       </c>
-      <c r="N20">
+      <c r="Q20">
         <v>315.48439656908198</v>
       </c>
-      <c r="P20">
+      <c r="R20">
+        <v>306.76861186080703</v>
+      </c>
+      <c r="S20">
         <v>296.36324923300901</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>20</v>
       </c>
+      <c r="C21">
+        <v>3.5018364164734801</v>
+      </c>
+      <c r="D21">
+        <v>0.25989284752383701</v>
+      </c>
+      <c r="E21">
+        <v>3.4478246710259701</v>
+      </c>
+      <c r="F21">
+        <v>1.8977709415683599</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1.34042727173022E-6</v>
+      </c>
+      <c r="J21">
+        <v>20</v>
+      </c>
+      <c r="K21">
+        <v>46.358395770146203</v>
+      </c>
+      <c r="L21">
+        <v>1.7899231756796199</v>
+      </c>
+      <c r="M21" s="4">
+        <v>1.3670457940253601E-6</v>
+      </c>
+      <c r="O21">
+        <v>0.59261560749978304</v>
+      </c>
+      <c r="Q21">
+        <v>313.84826269571897</v>
+      </c>
+      <c r="R21">
+        <v>306.31279763244299</v>
+      </c>
+      <c r="S21">
+        <v>296.268612833286</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+    </row>
+    <row r="23" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="I23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" t="s">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>2</v>
+      </c>
+      <c r="L23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M23" t="s">
+        <v>15</v>
+      </c>
+      <c r="O23" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23"/>
+      <c r="Q23" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" t="s">
+        <v>6</v>
+      </c>
+      <c r="S23" t="s">
+        <v>7</v>
+      </c>
+      <c r="T23"/>
+    </row>
+    <row r="24" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="I24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>11041.5446154523</v>
+      </c>
+      <c r="L24">
+        <v>11628.0957542418</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0.486619358590132</v>
+      </c>
+      <c r="O24" s="2">
+        <v>4525.8446856840001</v>
+      </c>
+      <c r="P24"/>
+      <c r="Q24">
+        <v>106.661167549288</v>
+      </c>
+      <c r="R24">
+        <v>109.774488085098</v>
+      </c>
+      <c r="S24">
+        <v>126.879063217981</v>
+      </c>
+      <c r="T24"/>
+    </row>
+    <row r="25" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="I25"/>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>7434.35604702611</v>
+      </c>
+      <c r="L25">
+        <v>8047.0669043548296</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0.22653097892021301</v>
+      </c>
+      <c r="O25" s="2">
+        <v>2667.8312374552502</v>
+      </c>
+      <c r="P25"/>
+      <c r="Q25">
+        <v>118.893566379438</v>
+      </c>
+      <c r="R25">
+        <v>113.71546038822</v>
+      </c>
+      <c r="S25">
+        <v>132.03480428701801</v>
+      </c>
+      <c r="T25"/>
+    </row>
+    <row r="26" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="I26"/>
+      <c r="J26">
+        <v>3</v>
+      </c>
+      <c r="K26">
+        <v>5224.6797228407104</v>
+      </c>
+      <c r="L26">
+        <v>4485.3837325247696</v>
+      </c>
+      <c r="M26" s="2">
+        <v>3.7465256952908602E-2</v>
+      </c>
+      <c r="O26" s="2">
+        <v>1688.79836130025</v>
+      </c>
+      <c r="P26"/>
+      <c r="Q26">
+        <v>127.97157842439699</v>
+      </c>
+      <c r="R26">
+        <v>112.513583106621</v>
+      </c>
+      <c r="S26">
+        <v>138.135767087451</v>
+      </c>
+      <c r="T26"/>
+    </row>
+    <row r="27" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="I27"/>
+      <c r="J27">
+        <v>4</v>
+      </c>
+      <c r="K27">
+        <v>3721.0889909798798</v>
+      </c>
+      <c r="L27">
+        <v>3447.07139503608</v>
+      </c>
+      <c r="M27" s="2">
+        <v>6.2309489475661999E-2</v>
+      </c>
+      <c r="O27" s="2">
+        <v>1019.40753155691</v>
+      </c>
+      <c r="P27"/>
+      <c r="Q27">
+        <v>136.919026863787</v>
+      </c>
+      <c r="R27">
+        <v>115.788298351267</v>
+      </c>
+      <c r="S27">
+        <v>146.66856774164199</v>
+      </c>
+      <c r="T27"/>
+    </row>
+    <row r="28" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="I28"/>
+      <c r="J28">
+        <v>5</v>
+      </c>
+      <c r="K28">
+        <v>2819.0641170987501</v>
+      </c>
+      <c r="L28">
+        <v>2975.32049961641</v>
+      </c>
+      <c r="M28" s="2">
+        <v>2.2257608665175101E-2</v>
+      </c>
+      <c r="O28" s="2">
+        <v>634.66053163872903</v>
+      </c>
+      <c r="P28"/>
+      <c r="Q28">
+        <v>142.09087558065301</v>
+      </c>
+      <c r="R28">
+        <v>128.050990495245</v>
+      </c>
+      <c r="S28">
+        <v>151.77077997260901</v>
+      </c>
+      <c r="T28"/>
+    </row>
+    <row r="29" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="I29"/>
+      <c r="J29">
+        <v>6</v>
+      </c>
+      <c r="K29">
+        <v>2322.5586482396802</v>
+      </c>
+      <c r="L29">
+        <v>2401.47693923933</v>
+      </c>
+      <c r="M29" s="2">
+        <v>1.66061746489287E-2</v>
+      </c>
+      <c r="O29" s="2">
+        <v>348.16990593971201</v>
+      </c>
+      <c r="P29"/>
+      <c r="Q29">
+        <v>145.53841236837499</v>
+      </c>
+      <c r="R29">
+        <v>129.259819667356</v>
+      </c>
+      <c r="S29">
+        <v>158.34120547704401</v>
+      </c>
+      <c r="T29"/>
+    </row>
+    <row r="30" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="I30"/>
+      <c r="J30">
+        <v>7</v>
+      </c>
+      <c r="K30">
+        <v>1611.5392787143301</v>
+      </c>
+      <c r="L30">
+        <v>1116.3481057060901</v>
+      </c>
+      <c r="M30" s="2">
+        <v>1.0352578564865799E-2</v>
+      </c>
+      <c r="O30" s="2">
+        <v>217.285832654351</v>
+      </c>
+      <c r="P30"/>
+      <c r="Q30">
+        <v>154.17991605845501</v>
+      </c>
+      <c r="R30">
+        <v>146.71301606418999</v>
+      </c>
+      <c r="S30">
+        <v>161.559434612796</v>
+      </c>
+      <c r="T30"/>
+    </row>
+    <row r="31" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="I31"/>
+      <c r="J31">
+        <v>8</v>
+      </c>
+      <c r="K31">
+        <v>1201.15776507755</v>
+      </c>
+      <c r="L31">
+        <v>672.52668874817095</v>
+      </c>
+      <c r="M31" s="2">
+        <v>1.6214008883163301E-2</v>
+      </c>
+      <c r="O31" s="2">
+        <v>145.60224434852799</v>
+      </c>
+      <c r="P31"/>
+      <c r="Q31">
+        <v>161.49422332261801</v>
+      </c>
+      <c r="R31">
+        <v>149.82722082945099</v>
+      </c>
+      <c r="S31">
+        <v>162.02518592441999</v>
+      </c>
+      <c r="T31"/>
+    </row>
+    <row r="32" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I32"/>
+      <c r="J32">
+        <v>9</v>
+      </c>
+      <c r="K32">
+        <v>902.26793391872604</v>
+      </c>
+      <c r="L32">
+        <v>551.10737479842601</v>
+      </c>
+      <c r="M32" s="2">
+        <v>2.0535411944022901E-3</v>
+      </c>
+      <c r="O32" s="2">
+        <v>92.705921622879004</v>
+      </c>
+      <c r="P32"/>
+      <c r="Q32">
+        <v>164.64060777025301</v>
+      </c>
+      <c r="R32">
+        <v>163.69648154427301</v>
+      </c>
+      <c r="S32">
+        <v>162.988891687262</v>
+      </c>
+      <c r="T32"/>
+    </row>
+    <row r="33" spans="9:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I33"/>
+      <c r="J33">
+        <v>10</v>
+      </c>
+      <c r="K33">
+        <v>622.80561940016696</v>
+      </c>
+      <c r="L33">
+        <v>188.02703557669099</v>
+      </c>
+      <c r="M33" s="2">
+        <v>2.27340274908539E-3</v>
+      </c>
+      <c r="O33" s="2">
+        <v>52.105651944473301</v>
+      </c>
+      <c r="P33"/>
+      <c r="Q33">
+        <v>167.809143790024</v>
+      </c>
+      <c r="R33">
+        <v>172.842449483622</v>
+      </c>
+      <c r="S33">
+        <v>164.02662221516499</v>
+      </c>
+      <c r="T33"/>
+    </row>
+    <row r="34" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <v>11</v>
+      </c>
+      <c r="K34">
+        <v>518.587705630144</v>
+      </c>
+      <c r="L34">
+        <v>174.13152334066899</v>
+      </c>
+      <c r="M34">
+        <v>5.7826985743728897E-3</v>
+      </c>
+      <c r="O34">
+        <v>32.666510402625001</v>
+      </c>
+      <c r="Q34">
+        <v>168.61260060620199</v>
+      </c>
+      <c r="R34">
+        <v>172.850517077353</v>
+      </c>
+      <c r="S34">
+        <v>164.352676010034</v>
+      </c>
+    </row>
+    <row r="35" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <v>12</v>
+      </c>
+      <c r="K35">
+        <v>436.086264375724</v>
+      </c>
+      <c r="L35">
+        <v>191.50547938262599</v>
+      </c>
+      <c r="M35">
+        <v>1.4952199211454699E-3</v>
+      </c>
+      <c r="O35">
+        <v>24.116016728084901</v>
+      </c>
+      <c r="Q35">
+        <v>168.48717963118699</v>
+      </c>
+      <c r="R35">
+        <v>181.26252595277899</v>
+      </c>
+      <c r="S35">
+        <v>164.688893722675</v>
+      </c>
+    </row>
+    <row r="36" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <v>13</v>
+      </c>
+      <c r="K36">
+        <v>338.70587282679702</v>
+      </c>
+      <c r="L36">
+        <v>55.026868379669096</v>
+      </c>
+      <c r="M36">
+        <v>2.5459560726701701E-3</v>
+      </c>
+      <c r="O36">
+        <v>15.9415419716565</v>
+      </c>
+      <c r="Q36">
+        <v>169.10045336714199</v>
+      </c>
+      <c r="R36">
+        <v>184.16346827180101</v>
+      </c>
+      <c r="S36">
+        <v>165.505003459748</v>
+      </c>
+    </row>
+    <row r="37" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <v>14</v>
+      </c>
+      <c r="K37">
+        <v>279.111717872111</v>
+      </c>
+      <c r="L37">
+        <v>89.213534528254797</v>
+      </c>
+      <c r="M37">
+        <v>3.0888534968491401E-4</v>
+      </c>
+      <c r="O37">
+        <v>8.2713802684241404</v>
+      </c>
+      <c r="Q37">
+        <v>169.38643919504801</v>
+      </c>
+      <c r="R37">
+        <v>188.34378011779501</v>
+      </c>
+      <c r="S37">
+        <v>166.40147692455901</v>
+      </c>
+    </row>
+    <row r="38" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="J38">
+        <v>15</v>
+      </c>
+      <c r="K38">
+        <v>229.76203441429999</v>
+      </c>
+      <c r="L38">
+        <v>64.644175215057501</v>
+      </c>
+      <c r="M38">
+        <v>1.61343561252265E-4</v>
+      </c>
+      <c r="O38">
+        <v>5.3035213178468599</v>
+      </c>
+      <c r="Q38">
+        <v>171.03095353837401</v>
+      </c>
+      <c r="R38">
+        <v>186.149718241079</v>
+      </c>
+      <c r="S38">
+        <v>166.72616792714001</v>
+      </c>
+    </row>
+    <row r="39" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="J39">
+        <v>16</v>
+      </c>
+      <c r="K39">
+        <v>188.068035853743</v>
+      </c>
+      <c r="L39">
+        <v>36.857984818775897</v>
+      </c>
+      <c r="M39" s="4">
+        <v>6.4316747671410595E-5</v>
+      </c>
+      <c r="O39">
+        <v>2.7974449641808801</v>
+      </c>
+      <c r="Q39">
+        <v>172.49662959375499</v>
+      </c>
+      <c r="R39">
+        <v>192.38332994947601</v>
+      </c>
+      <c r="S39">
+        <v>167.093384674308</v>
+      </c>
+    </row>
+    <row r="40" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <v>17</v>
+      </c>
+      <c r="K40">
+        <v>151.65750943164301</v>
+      </c>
+      <c r="L40">
+        <v>36.0200160553904</v>
+      </c>
+      <c r="M40" s="4">
+        <v>5.0335579206597803E-5</v>
+      </c>
+      <c r="O40">
+        <v>1.40702112169796</v>
+      </c>
+      <c r="Q40">
+        <v>174.04269315145899</v>
+      </c>
+      <c r="R40">
+        <v>190.115341429983</v>
+      </c>
+      <c r="S40">
+        <v>167.18668126036101</v>
+      </c>
+    </row>
+    <row r="41" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="J41">
+        <v>18</v>
+      </c>
+      <c r="K41">
+        <v>116.154002757987</v>
+      </c>
+      <c r="L41">
+        <v>13.051647550278499</v>
+      </c>
+      <c r="M41" s="4">
+        <v>7.3223831702322201E-6</v>
+      </c>
+      <c r="O41">
+        <v>0.84507976978327204</v>
+      </c>
+      <c r="Q41">
+        <v>176.792412258681</v>
+      </c>
+      <c r="R41">
+        <v>189.415664950896</v>
+      </c>
+      <c r="S41">
+        <v>167.36501127465999</v>
+      </c>
+    </row>
+    <row r="42" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <v>19</v>
+      </c>
+      <c r="K42">
+        <v>89.832184143827703</v>
+      </c>
+      <c r="L42">
+        <v>9.3426807705074797</v>
+      </c>
+      <c r="M42" s="4">
+        <v>1.3793811165536E-5</v>
+      </c>
+      <c r="O42">
+        <v>0.43612144809866499</v>
+      </c>
+      <c r="Q42">
+        <v>180.37124935460801</v>
+      </c>
+      <c r="R42">
+        <v>189.690299690757</v>
+      </c>
+      <c r="S42">
+        <v>167.56654644711699</v>
+      </c>
+    </row>
+    <row r="43" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="J43">
+        <v>20</v>
+      </c>
+      <c r="K43">
+        <v>60.621841703877998</v>
+      </c>
+      <c r="L43">
+        <v>5.6596900949639597</v>
+      </c>
+      <c r="M43" s="4">
+        <v>2.5082827998115598E-6</v>
+      </c>
+      <c r="O43">
+        <v>0.25230758979214302</v>
+      </c>
+      <c r="Q43">
+        <v>184.09809711652201</v>
+      </c>
+      <c r="R43">
+        <v>189.690299690757</v>
+      </c>
+      <c r="S43">
+        <v>167.67602308350499</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB64CEC8-C5A5-4E0A-8DAD-747EDE57CECF}">
+  <dimension ref="A1:K44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
+    <col min="11" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" customWidth="1"/>
+    <col min="23" max="23" width="14.140625" customWidth="1"/>
+    <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1">
+        <v>2E-3</v>
+      </c>
+      <c r="D1">
+        <v>1.83E-2</v>
+      </c>
+      <c r="E1">
+        <v>0.03</v>
+      </c>
+      <c r="F1">
+        <v>0.18442</v>
+      </c>
+      <c r="G1">
+        <v>0.3</v>
+      </c>
+      <c r="H1">
+        <v>0.5</v>
+      </c>
+      <c r="I1">
+        <v>0.75</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1">
+        <v>1.345</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>11159.3422069232</v>
+      </c>
+      <c r="D2">
+        <v>11272.745042889799</v>
+      </c>
+      <c r="F2">
+        <v>11770.5141274741</v>
+      </c>
+      <c r="G2">
+        <v>11108.3342360469</v>
+      </c>
+      <c r="H2">
+        <v>11238.4445939501</v>
+      </c>
+      <c r="I2">
+        <v>11197.8367004914</v>
+      </c>
+      <c r="J2">
+        <v>11830.4123148613</v>
+      </c>
+      <c r="K2">
+        <v>11628.0957542418</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>8272.9602076555293</v>
+      </c>
+      <c r="D3">
+        <v>7767.1794242072601</v>
+      </c>
+      <c r="F3">
+        <v>8233.6603921538608</v>
+      </c>
+      <c r="G3">
+        <v>8581.0242772915008</v>
+      </c>
+      <c r="H3">
+        <v>7741.2122902412802</v>
+      </c>
+      <c r="I3">
+        <v>7309.7138936667998</v>
+      </c>
+      <c r="J3">
+        <v>7901.4985495634201</v>
+      </c>
+      <c r="K3">
+        <v>8047.0669043548296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>4969.7807028075704</v>
+      </c>
+      <c r="D4">
+        <v>4902.6263478703204</v>
+      </c>
+      <c r="F4">
+        <v>5110.2900470970999</v>
+      </c>
+      <c r="G4">
+        <v>4540.7734640981798</v>
+      </c>
+      <c r="H4">
+        <v>4802.5900398475296</v>
+      </c>
+      <c r="I4">
+        <v>4324.8378048925097</v>
+      </c>
+      <c r="J4">
+        <v>5183.1759007902601</v>
+      </c>
+      <c r="K4">
+        <v>4485.3837325247696</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>3939.0970027399198</v>
+      </c>
+      <c r="D5">
+        <v>3828.9199570238802</v>
+      </c>
+      <c r="F5">
+        <v>4336.8363754850798</v>
+      </c>
+      <c r="G5">
+        <v>3653.0698077482798</v>
+      </c>
+      <c r="H5">
+        <v>3981.0512300359301</v>
+      </c>
+      <c r="I5">
+        <v>4095.3403167357701</v>
+      </c>
+      <c r="J5">
+        <v>3654.05997073052</v>
+      </c>
+      <c r="K5">
+        <v>3447.07139503608</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>2664.9831463525102</v>
+      </c>
+      <c r="D6">
+        <v>2605.95337208214</v>
+      </c>
+      <c r="F6">
+        <v>2959.68833599339</v>
+      </c>
+      <c r="G6">
+        <v>3025.6336578495898</v>
+      </c>
+      <c r="H6">
+        <v>2807.18974231936</v>
+      </c>
+      <c r="I6">
+        <v>2501.5537742440501</v>
+      </c>
+      <c r="J6">
+        <v>3111.4423697786101</v>
+      </c>
+      <c r="K6">
+        <v>2975.32049961641</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>2145.9262655118</v>
+      </c>
+      <c r="D7">
+        <v>2199.6067485448898</v>
+      </c>
+      <c r="F7">
+        <v>2191.2290155176502</v>
+      </c>
+      <c r="G7">
+        <v>2131.6231347920102</v>
+      </c>
+      <c r="H7">
+        <v>2103.4449756884401</v>
+      </c>
+      <c r="I7">
+        <v>2372.2888492934399</v>
+      </c>
+      <c r="J7">
+        <v>2371.85516357304</v>
+      </c>
+      <c r="K7">
+        <v>2401.47693923933</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>1227.29311453473</v>
+      </c>
+      <c r="D8">
+        <v>1290.74622873065</v>
+      </c>
+      <c r="F8">
+        <v>1360.96882274626</v>
+      </c>
+      <c r="G8">
+        <v>1411.8185441301</v>
+      </c>
+      <c r="H8">
+        <v>1598.35087007417</v>
+      </c>
+      <c r="I8">
+        <v>1413.0930118327001</v>
+      </c>
+      <c r="J8">
+        <v>1641.77568162426</v>
+      </c>
+      <c r="K8">
+        <v>1116.3481057060901</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>932.25502891918302</v>
+      </c>
+      <c r="D9">
+        <v>932.09378554940099</v>
+      </c>
+      <c r="F9">
+        <v>938.44929701994204</v>
+      </c>
+      <c r="G9">
+        <v>895.90619287033201</v>
+      </c>
+      <c r="H9">
+        <v>975.88571135245297</v>
+      </c>
+      <c r="I9">
+        <v>946.98810055446097</v>
+      </c>
+      <c r="J9">
+        <v>702.34384218221601</v>
+      </c>
+      <c r="K9">
+        <v>672.52668874817095</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>810.12126284365502</v>
+      </c>
+      <c r="D10">
+        <v>819.94264988984503</v>
+      </c>
+      <c r="F10">
+        <v>884.17871143597404</v>
+      </c>
+      <c r="G10">
+        <v>725.51792408070503</v>
+      </c>
+      <c r="H10">
+        <v>662.15967636555604</v>
+      </c>
+      <c r="I10">
+        <v>645.41063881945195</v>
+      </c>
+      <c r="J10">
+        <v>814.02592667943804</v>
+      </c>
+      <c r="K10">
+        <v>551.10737479842601</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>558.60918585247305</v>
+      </c>
+      <c r="D11">
+        <v>581.79809116632396</v>
+      </c>
+      <c r="F11">
+        <v>605.62466213192397</v>
+      </c>
+      <c r="G11">
+        <v>427.72071351670598</v>
+      </c>
+      <c r="H11">
+        <v>342.53039418977602</v>
+      </c>
+      <c r="I11">
+        <v>370.96095987618401</v>
+      </c>
+      <c r="J11">
+        <v>376.465216341489</v>
+      </c>
+      <c r="K11">
+        <v>188.02703557669099</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>553.34926802986195</v>
+      </c>
+      <c r="D12">
+        <v>581.49749503569899</v>
+      </c>
+      <c r="F12">
+        <v>531.82521478708702</v>
+      </c>
+      <c r="G12">
+        <v>465.88004204786301</v>
+      </c>
+      <c r="H12">
+        <v>382.22135499039501</v>
+      </c>
+      <c r="I12">
+        <v>277.68016055979598</v>
+      </c>
+      <c r="J12">
+        <v>286.77934831276298</v>
+      </c>
+      <c r="K12">
+        <v>174.13152334066899</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>353.797286767152</v>
+      </c>
+      <c r="D13">
+        <v>417.79310755473398</v>
+      </c>
+      <c r="F13">
+        <v>284.94443306195501</v>
+      </c>
+      <c r="G13">
+        <v>324.271796465975</v>
+      </c>
+      <c r="H13">
+        <v>178.37468484188599</v>
+      </c>
+      <c r="I13">
+        <v>199.60719797917301</v>
+      </c>
+      <c r="J13">
+        <v>243.72788368416099</v>
+      </c>
+      <c r="K13">
+        <v>191.50547938262599</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>325.63543287508799</v>
+      </c>
+      <c r="D14">
+        <v>332.47087436537299</v>
+      </c>
+      <c r="F14">
+        <v>299.41179600806498</v>
+      </c>
+      <c r="G14">
+        <v>245.41839140994199</v>
+      </c>
+      <c r="H14">
+        <v>180.83038764292999</v>
+      </c>
+      <c r="I14">
+        <v>118.78730306450301</v>
+      </c>
+      <c r="J14">
+        <v>128.34213966927501</v>
+      </c>
+      <c r="K14">
+        <v>55.026868379669096</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>264.69032597645599</v>
+      </c>
+      <c r="D15">
+        <v>268.26084211971602</v>
+      </c>
+      <c r="F15">
+        <v>265.54821507113701</v>
+      </c>
+      <c r="G15">
+        <v>263.00026899415599</v>
+      </c>
+      <c r="H15">
+        <v>180.993077094352</v>
+      </c>
+      <c r="I15">
+        <v>83.531597662514301</v>
+      </c>
+      <c r="J15">
+        <v>107.528339534049</v>
+      </c>
+      <c r="K15">
+        <v>89.213534528254797</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>209.05812349727</v>
+      </c>
+      <c r="D16">
+        <v>230.36531092627101</v>
+      </c>
+      <c r="F16">
+        <v>180.24274009421001</v>
+      </c>
+      <c r="G16">
+        <v>161.06946652719</v>
+      </c>
+      <c r="H16">
+        <v>136.15426987989699</v>
+      </c>
+      <c r="I16">
+        <v>95.412305174732097</v>
+      </c>
+      <c r="J16">
+        <v>81.981805304786803</v>
+      </c>
+      <c r="K16">
+        <v>64.644175215057501</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>181.25115598300201</v>
+      </c>
+      <c r="D17">
+        <v>170.81033688730699</v>
+      </c>
+      <c r="F17">
+        <v>134.003190422503</v>
+      </c>
+      <c r="G17">
+        <v>128.86935554116599</v>
+      </c>
+      <c r="H17">
+        <v>76.351049959444197</v>
+      </c>
+      <c r="I17">
+        <v>88.672393508454704</v>
+      </c>
+      <c r="J17">
+        <v>86.195552325109006</v>
+      </c>
+      <c r="K17">
+        <v>36.857984818775897</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>128.192949820048</v>
+      </c>
+      <c r="D18">
+        <v>131.826698043947</v>
+      </c>
+      <c r="F18">
+        <v>108.886461960058</v>
+      </c>
+      <c r="G18">
+        <v>92.268160113508003</v>
+      </c>
+      <c r="H18">
+        <v>99.525287631767398</v>
+      </c>
+      <c r="I18">
+        <v>70.954361373953404</v>
+      </c>
+      <c r="J18">
+        <v>54.724928306918002</v>
+      </c>
+      <c r="K18">
+        <v>36.0200160553904</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>103.987325689689</v>
+      </c>
+      <c r="D19">
+        <v>93.1845675299448</v>
+      </c>
+      <c r="F19">
+        <v>76.216778812237095</v>
+      </c>
+      <c r="G19">
+        <v>54.847188897890398</v>
+      </c>
+      <c r="H19">
+        <v>49.107350500972302</v>
+      </c>
+      <c r="I19">
+        <v>34.748262507672699</v>
+      </c>
+      <c r="J19">
+        <v>22.680732006949899</v>
+      </c>
+      <c r="K19">
+        <v>13.051647550278499</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>75.2973236930562</v>
+      </c>
+      <c r="D20">
+        <v>74.885990769703795</v>
+      </c>
+      <c r="F20">
+        <v>71.589764198990594</v>
+      </c>
+      <c r="G20">
+        <v>52.345713500617897</v>
+      </c>
+      <c r="H20">
+        <v>34.674033996454199</v>
+      </c>
+      <c r="I20">
+        <v>23.338605697158801</v>
+      </c>
+      <c r="J20">
+        <v>12.363053768660199</v>
+      </c>
+      <c r="K20">
+        <v>9.3426807705074797</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>55.773352192102102</v>
+      </c>
+      <c r="D21">
+        <v>57.230567156792603</v>
+      </c>
+      <c r="F21">
+        <v>37.704848655957598</v>
+      </c>
+      <c r="G21">
+        <v>25.9314479280733</v>
+      </c>
       <c r="H21">
+        <v>28.284944902493098</v>
+      </c>
+      <c r="I21">
+        <v>2.2618707057160701</v>
+      </c>
+      <c r="J21">
+        <v>5.1451406774824102</v>
+      </c>
+      <c r="K21">
+        <v>5.6596900949639597</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24">
+        <v>2E-3</v>
+      </c>
+      <c r="D24">
+        <v>1.83E-2</v>
+      </c>
+      <c r="E24">
+        <v>0.03</v>
+      </c>
+      <c r="F24">
+        <v>0.18442</v>
+      </c>
+      <c r="G24">
+        <v>0.3</v>
+      </c>
+      <c r="H24">
+        <v>0.5</v>
+      </c>
+      <c r="I24">
+        <v>0.75</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1.345</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>108.79820841059799</v>
+      </c>
+      <c r="E25">
+        <v>109.30949161506599</v>
+      </c>
+      <c r="G25">
+        <v>108.826291511218</v>
+      </c>
+      <c r="I25">
+        <v>110.452436736536</v>
+      </c>
+      <c r="K25">
+        <v>109.774488085098</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>112.784325886095</v>
+      </c>
+      <c r="E26">
+        <v>112.34914452504501</v>
+      </c>
+      <c r="G26">
+        <v>112.208112796374</v>
+      </c>
+      <c r="I26">
+        <v>112.67481795707999</v>
+      </c>
+      <c r="K26">
+        <v>113.71546038822</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>116.01273424996</v>
+      </c>
+      <c r="E27">
+        <v>114.297389578618</v>
+      </c>
+      <c r="G27">
+        <v>113.44791470417699</v>
+      </c>
+      <c r="I27">
+        <v>112.79606823003699</v>
+      </c>
+      <c r="K27">
+        <v>112.513583106621</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>116.418042835061</v>
+      </c>
+      <c r="E28">
+        <v>117.879911025439</v>
+      </c>
+      <c r="G28">
+        <v>115.56407044976299</v>
+      </c>
+      <c r="I28">
+        <v>119.079355122735</v>
+      </c>
+      <c r="K28">
+        <v>115.788298351267</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>131.23504198117701</v>
+      </c>
+      <c r="E29">
+        <v>130.655474097161</v>
+      </c>
+      <c r="G29">
+        <v>129.996534195218</v>
+      </c>
+      <c r="I29">
+        <v>125.720172558897</v>
+      </c>
+      <c r="K29">
+        <v>128.050990495245</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>134.15369372199601</v>
+      </c>
+      <c r="E30">
+        <v>134.28116727769799</v>
+      </c>
+      <c r="G30">
+        <v>129.976711138117</v>
+      </c>
+      <c r="I30">
+        <v>128.56002123993099</v>
+      </c>
+      <c r="K30">
+        <v>129.259819667356</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>140.42234604741799</v>
+      </c>
+      <c r="E31">
+        <v>142.311011710157</v>
+      </c>
+      <c r="G31">
+        <v>138.384315965811</v>
+      </c>
+      <c r="I31">
+        <v>138.28816878264999</v>
+      </c>
+      <c r="K31">
+        <v>146.71301606418999</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>151.83049185171299</v>
+      </c>
+      <c r="E32">
+        <v>153.043051606548</v>
+      </c>
+      <c r="G32">
+        <v>150.564520622506</v>
+      </c>
+      <c r="I32">
+        <v>154.54219871060499</v>
+      </c>
+      <c r="K32">
+        <v>149.82722082945099</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>9</v>
+      </c>
+      <c r="C33">
+        <v>158.809298613181</v>
+      </c>
+      <c r="E33">
+        <v>155.62977699465199</v>
+      </c>
+      <c r="G33">
+        <v>158.715301641114</v>
+      </c>
+      <c r="I33">
+        <v>156.276679873962</v>
+      </c>
+      <c r="K33">
+        <v>163.69648154427301</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>167.50865367127801</v>
+      </c>
+      <c r="G34">
+        <v>169.26869976700601</v>
+      </c>
+      <c r="I34">
+        <v>173.77014247073001</v>
+      </c>
+      <c r="K34">
+        <v>172.842449483622</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>11</v>
+      </c>
+      <c r="C35">
+        <v>168.50408463609301</v>
+      </c>
+      <c r="G35">
+        <v>172.36285443630601</v>
+      </c>
+      <c r="K35">
+        <v>172.850517077353</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>12</v>
+      </c>
+      <c r="C36">
+        <v>169.89342005646799</v>
+      </c>
+      <c r="G36">
+        <v>174.43550986614699</v>
+      </c>
+      <c r="K36">
+        <v>181.26252595277899</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>13</v>
+      </c>
+      <c r="C37">
+        <v>170.27250402342301</v>
+      </c>
+      <c r="G37">
+        <v>176.83167381538701</v>
+      </c>
+      <c r="K37">
+        <v>184.16346827180101</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>14</v>
+      </c>
+      <c r="C38">
+        <v>173.44665545753199</v>
+      </c>
+      <c r="G38">
+        <v>174.78542494030199</v>
+      </c>
+      <c r="K38">
+        <v>188.34378011779501</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>15</v>
+      </c>
+      <c r="C39">
+        <v>173.20700658451199</v>
+      </c>
+      <c r="G39">
+        <v>178.794868024316</v>
+      </c>
+      <c r="K39">
+        <v>186.149718241079</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>16</v>
+      </c>
+      <c r="C40">
+        <v>175.86425610282001</v>
+      </c>
+      <c r="G40">
+        <v>179.94374420627301</v>
+      </c>
+      <c r="K40">
+        <v>192.38332994947601</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>17</v>
+      </c>
+      <c r="C41">
+        <v>176.333820691125</v>
+      </c>
+      <c r="G41">
+        <v>185.83666213057401</v>
+      </c>
+      <c r="K41">
+        <v>190.115341429983</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>18</v>
+      </c>
+      <c r="C42">
+        <v>178.81702956212999</v>
+      </c>
+      <c r="G42">
+        <v>184.97840728861101</v>
+      </c>
+      <c r="K42">
+        <v>189.415664950896</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>19</v>
+      </c>
+      <c r="C43">
+        <v>181.10632496172701</v>
+      </c>
+      <c r="G43">
+        <v>186.02464609807501</v>
+      </c>
+      <c r="K43">
+        <v>189.690299690757</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44">
         <v>20</v>
       </c>
-      <c r="I21">
-        <v>46.358395770146203</v>
-      </c>
-      <c r="J21">
-        <v>1.7899231756796199</v>
-      </c>
-      <c r="K21">
-        <v>0.59261560749978304</v>
-      </c>
-      <c r="N21">
-        <v>313.84826269571897</v>
-      </c>
-      <c r="P21">
-        <v>296.268612833286</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="C44">
+        <v>184.48489364297899</v>
+      </c>
+      <c r="G44">
+        <v>187.0005273422</v>
+      </c>
+      <c r="K44">
+        <v>189.690299690757</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
